--- a/data/descriptive stats/descriptive_stats.xlsx
+++ b/data/descriptive stats/descriptive_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Important Documents\02. Goethe Universität Frankfurt\06. Master Thesis\masterarbeit\data\descriptive stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD93484-2056-48D6-B671-0DC949D9AF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A3E345-5166-4AE8-A38C-805A6D7A23A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{3859E989-473E-4499-8292-A4135CA22E7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3859E989-473E-4499-8292-A4135CA22E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptive_stats" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="corr_h1_spglobal" sheetId="2" r:id="rId3"/>
     <sheet name="corr_h1_sustainalytics" sheetId="3" r:id="rId4"/>
     <sheet name="corr_h2" sheetId="5" r:id="rId5"/>
+    <sheet name="corr_esg" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">corr_esg!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">corr_h1_refinitiv!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">corr_h1_spglobal!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">corr_h1_sustainalytics!$A$1:$E$1</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="83">
   <si>
     <t>ESG_RTG</t>
   </si>
@@ -292,7 +294,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -364,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E028C862-085C-4BB4-8561-172C8928D9D0}">
   <dimension ref="A1:L287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13569,7 +13571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDB07A9-8396-4F09-BFE8-5169CAB170B1}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -13893,4 +13895,79 @@
   <autoFilter ref="A1:D1" xr:uid="{ADDB07A9-8396-4F09-BFE8-5169CAB170B1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355D6C3D-0785-401F-B75D-2F609967EA7F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0.45347999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>0.50143000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>0.35459000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{355D6C3D-0785-401F-B75D-2F609967EA7F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>